--- a/generator.xlsx
+++ b/generator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Suresh\git\cbc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4C937C-D565-4BC7-81CB-4739CC6DD0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0F17AC-0613-4267-8953-909BA98DF04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{DF8B5219-CE89-437E-8EE2-14C06188A59A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="121">
   <si>
     <t>fr</t>
   </si>
@@ -355,6 +355,51 @@
   </si>
   <si>
     <t>rpfs</t>
+  </si>
+  <si>
+    <t>The required value for the power factor cannot be less than the existing one.</t>
+  </si>
+  <si>
+    <t>El valor requerido para el factor de potencia no puede ser menor que el existente.</t>
+  </si>
+  <si>
+    <t>La valeur requise pour le facteur de puissance ne peut pas être inférieure à celle existante.</t>
+  </si>
+  <si>
+    <t>Required line current</t>
+  </si>
+  <si>
+    <t>Required apparent power</t>
+  </si>
+  <si>
+    <t>Courant de ligne requis</t>
+  </si>
+  <si>
+    <t>Puissance apparente requise</t>
+  </si>
+  <si>
+    <t>Required reactive power</t>
+  </si>
+  <si>
+    <t>Potencia reactiva requerida</t>
+  </si>
+  <si>
+    <t>Puissance réactive requise</t>
+  </si>
+  <si>
+    <t>Corriente de línea requerida</t>
+  </si>
+  <si>
+    <t>Potencia aparente requerida</t>
+  </si>
+  <si>
+    <t>rQC</t>
+  </si>
+  <si>
+    <t>rS</t>
+  </si>
+  <si>
+    <t>rI</t>
   </si>
 </sst>
 </file>
@@ -370,7 +415,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,6 +425,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,10 +447,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05BF4C0-D583-4E35-90CD-7A8E8F7BD1C3}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,25 +801,25 @@
         <v>15</v>
       </c>
       <c r="I1" t="str">
-        <f>IF(ISBLANK(B1),"",IF(ROW()=1,"[","")&amp;""""&amp;B1&amp;""""&amp;IF(ISBLANK(B2),"]",","))</f>
+        <f t="shared" ref="I1:I14" si="0">IF(ISBLANK(B1),"",IF(ROW()=1,"[","")&amp;""""&amp;B1&amp;""""&amp;IF(ISBLANK(B2),"]",","))</f>
         <v>["English",</v>
       </c>
       <c r="J1" t="str">
-        <f>IF(ISBLANK(C1),"",IF(ROW()=1,"[","")&amp;""""&amp;C1&amp;""""&amp;IF(ISBLANK(C2),"]",","))</f>
+        <f t="shared" ref="J1:J14" si="1">IF(ISBLANK(C1),"",IF(ROW()=1,"[","")&amp;""""&amp;C1&amp;""""&amp;IF(ISBLANK(C2),"]",","))</f>
         <v>["Español",</v>
       </c>
       <c r="K1" t="str">
-        <f>IF(ISBLANK(D1),"",IF(ROW()=1,"[","")&amp;""""&amp;D1&amp;""""&amp;IF(ISBLANK(D2),"]",","))</f>
+        <f t="shared" ref="K1:K14" si="2">IF(ISBLANK(D1),"",IF(ROW()=1,"[","")&amp;""""&amp;D1&amp;""""&amp;IF(ISBLANK(D2),"]",","))</f>
         <v>["Français",</v>
       </c>
       <c r="O1" s="1" t="str">
         <f>_xlfn.CONCAT("const l=[",I:I,",",J:J,",",K:K,"];")</f>
-        <v>const l=[["English","us","Capacitor bank calculations","Mains info","Private policy","Terms and conditions","Hey, we use cookies on your device to locally store your data!","Alright, go-ahead","No of phases","Line voltage","Frequency","Active power","Current power factor","Reactive power","Apparent power","Lagging","Line current","Requirements","Required power factor","Required capacitive reactive power","Required capacitance","when connected in delta","when connected in star","Leading"],["Español","mx","Cálculos del banco de capacitores","Información de red","Política privada","Términos y condiciones","¡Oye, usamos cookies en tu dispositivo para almacenar localmente tus datos!","Muy bien, adelante","Nº de fases","Linea de voltaje","Frecuencia","Potencia activo","factor de potencia actual","Potencia reactiva","Potencia aparente","Atrasado","Corriente de línea","Requisitos","Factor de potencia requerido","Potencia reactiva capacitiva requerida","Capacitancia requerida","cuando se conecta en delta","cuando se conecta en estrella","Adelantado"],["Français","fr","Calculs de banc de condensateurs","Informations sur le secteur","Politique privée","Termes et conditions","Hé, nous utilisons des cookies sur votre appareil pour stocker localement vos données !","D'accord, allez-y","Nbre de phases","Tension de ligne","La fréquence","Puissance active","Facteur de puissance actuel","Puissance réactive","Puissance apparente","Retard","Courant de ligne","Conditions","Facteur de puissance requis","Puissance réactive capacitive requise","Capacité requise","lorsqu'il est connecté en delta","lorsqu'il est connecté en étoile","Avance"]];</v>
+        <v>const l=[["English","us","Capacitor bank calculations","Mains info","Private policy","Terms and conditions","Hey, we use cookies on your device to locally store your data!","Alright, go-ahead","No of phases","Line voltage","Frequency","Active power","Current power factor","Reactive power","Apparent power","Lagging","Line current","Requirements","Required power factor","Required capacitive reactive power","Required capacitance","when connected in delta","when connected in star","Leading","The required value for the power factor cannot be less than the existing one.","Required line current","Required apparent power","Required reactive power"],["Español","mx","Cálculos del banco de capacitores","Información de red","Política privada","Términos y condiciones","¡Oye, usamos cookies en tu dispositivo para almacenar localmente tus datos!","Muy bien, adelante","Nº de fases","Linea de voltaje","Frecuencia","Potencia activo","factor de potencia actual","Potencia reactiva","Potencia aparente","Atrasado","Corriente de línea","Requisitos","Factor de potencia requerido","Potencia reactiva capacitiva requerida","Capacitancia requerida","cuando se conecta en delta","cuando se conecta en estrella","Adelantado","El valor requerido para el factor de potencia no puede ser menor que el existente.","Corriente de línea requerida","Potencia aparente requerida","Potencia reactiva requerida"],["Français","fr","Calculs de banc de condensateurs","Informations sur le secteur","Politique privée","Termes et conditions","Hé, nous utilisons des cookies sur votre appareil pour stocker localement vos données !","D'accord, allez-y","Nbre de phases","Tension de ligne","La fréquence","Puissance active","Facteur de puissance actuel","Puissance réactive","Puissance apparente","Retard","Courant de ligne","Conditions","Facteur de puissance requis","Puissance réactive capacitive requise","Capacité requise","lorsqu'il est connecté en delta","lorsqu'il est connecté en étoile","Avance","La valeur requise pour le facteur de puissance ne peut pas être inférieure à celle existante.","Courant de ligne requis","Puissance apparente requise","Puissance réactive requise"]];</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f t="shared" ref="A2:A25" si="0">ROW()-1</f>
+        <f t="shared" ref="A2:A51" si="3">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -780,21 +832,21 @@
         <v>0</v>
       </c>
       <c r="I2" t="str">
-        <f>IF(ISBLANK(B2),"",IF(ROW()=1,"[","")&amp;""""&amp;B2&amp;""""&amp;IF(ISBLANK(B3),"]",","))</f>
+        <f t="shared" si="0"/>
         <v>"us",</v>
       </c>
       <c r="J2" t="str">
-        <f>IF(ISBLANK(C2),"",IF(ROW()=1,"[","")&amp;""""&amp;C2&amp;""""&amp;IF(ISBLANK(C3),"]",","))</f>
+        <f t="shared" si="1"/>
         <v>"mx",</v>
       </c>
       <c r="K2" t="str">
-        <f>IF(ISBLANK(D2),"",IF(ROW()=1,"[","")&amp;""""&amp;D2&amp;""""&amp;IF(ISBLANK(D3),"]",","))</f>
+        <f t="shared" si="2"/>
         <v>"fr",</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -807,21 +859,21 @@
         <v>2</v>
       </c>
       <c r="I3" t="str">
-        <f>IF(ISBLANK(B3),"",IF(ROW()=1,"[","")&amp;""""&amp;B3&amp;""""&amp;IF(ISBLANK(B4),"]",","))</f>
+        <f t="shared" si="0"/>
         <v>"Capacitor bank calculations",</v>
       </c>
       <c r="J3" t="str">
-        <f>IF(ISBLANK(C3),"",IF(ROW()=1,"[","")&amp;""""&amp;C3&amp;""""&amp;IF(ISBLANK(C4),"]",","))</f>
+        <f t="shared" si="1"/>
         <v>"Cálculos del banco de capacitores",</v>
       </c>
       <c r="K3" t="str">
-        <f>IF(ISBLANK(D3),"",IF(ROW()=1,"[","")&amp;""""&amp;D3&amp;""""&amp;IF(ISBLANK(D4),"]",","))</f>
+        <f t="shared" si="2"/>
         <v>"Calculs de banc de condensateurs",</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -834,21 +886,21 @@
         <v>6</v>
       </c>
       <c r="I4" t="str">
-        <f>IF(ISBLANK(B4),"",IF(ROW()=1,"[","")&amp;""""&amp;B4&amp;""""&amp;IF(ISBLANK(B5),"]",","))</f>
+        <f t="shared" si="0"/>
         <v>"Mains info",</v>
       </c>
       <c r="J4" t="str">
-        <f>IF(ISBLANK(C4),"",IF(ROW()=1,"[","")&amp;""""&amp;C4&amp;""""&amp;IF(ISBLANK(C5),"]",","))</f>
+        <f t="shared" si="1"/>
         <v>"Información de red",</v>
       </c>
       <c r="K4" t="str">
-        <f>IF(ISBLANK(D4),"",IF(ROW()=1,"[","")&amp;""""&amp;D4&amp;""""&amp;IF(ISBLANK(D5),"]",","))</f>
+        <f t="shared" si="2"/>
         <v>"Informations sur le secteur",</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -861,21 +913,21 @@
         <v>8</v>
       </c>
       <c r="I5" t="str">
-        <f>IF(ISBLANK(B5),"",IF(ROW()=1,"[","")&amp;""""&amp;B5&amp;""""&amp;IF(ISBLANK(B6),"]",","))</f>
+        <f t="shared" si="0"/>
         <v>"Private policy",</v>
       </c>
       <c r="J5" t="str">
-        <f>IF(ISBLANK(C5),"",IF(ROW()=1,"[","")&amp;""""&amp;C5&amp;""""&amp;IF(ISBLANK(C6),"]",","))</f>
+        <f t="shared" si="1"/>
         <v>"Política privada",</v>
       </c>
       <c r="K5" t="str">
-        <f>IF(ISBLANK(D5),"",IF(ROW()=1,"[","")&amp;""""&amp;D5&amp;""""&amp;IF(ISBLANK(D6),"]",","))</f>
+        <f t="shared" si="2"/>
         <v>"Politique privée",</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -888,21 +940,21 @@
         <v>12</v>
       </c>
       <c r="I6" t="str">
-        <f>IF(ISBLANK(B6),"",IF(ROW()=1,"[","")&amp;""""&amp;B6&amp;""""&amp;IF(ISBLANK(B7),"]",","))</f>
+        <f t="shared" si="0"/>
         <v>"Terms and conditions",</v>
       </c>
       <c r="J6" t="str">
-        <f>IF(ISBLANK(C6),"",IF(ROW()=1,"[","")&amp;""""&amp;C6&amp;""""&amp;IF(ISBLANK(C7),"]",","))</f>
+        <f t="shared" si="1"/>
         <v>"Términos y condiciones",</v>
       </c>
       <c r="K6" t="str">
-        <f>IF(ISBLANK(D6),"",IF(ROW()=1,"[","")&amp;""""&amp;D6&amp;""""&amp;IF(ISBLANK(D7),"]",","))</f>
+        <f t="shared" si="2"/>
         <v>"Termes et conditions",</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -915,21 +967,21 @@
         <v>22</v>
       </c>
       <c r="I7" t="str">
-        <f>IF(ISBLANK(B7),"",IF(ROW()=1,"[","")&amp;""""&amp;B7&amp;""""&amp;IF(ISBLANK(B8),"]",","))</f>
+        <f t="shared" si="0"/>
         <v>"Hey, we use cookies on your device to locally store your data!",</v>
       </c>
       <c r="J7" t="str">
-        <f>IF(ISBLANK(C7),"",IF(ROW()=1,"[","")&amp;""""&amp;C7&amp;""""&amp;IF(ISBLANK(C8),"]",","))</f>
+        <f t="shared" si="1"/>
         <v>"¡Oye, usamos cookies en tu dispositivo para almacenar localmente tus datos!",</v>
       </c>
       <c r="K7" t="str">
-        <f>IF(ISBLANK(D7),"",IF(ROW()=1,"[","")&amp;""""&amp;D7&amp;""""&amp;IF(ISBLANK(D8),"]",","))</f>
+        <f t="shared" si="2"/>
         <v>"Hé, nous utilisons des cookies sur votre appareil pour stocker localement vos données !",</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -942,21 +994,21 @@
         <v>18</v>
       </c>
       <c r="I8" t="str">
-        <f>IF(ISBLANK(B8),"",IF(ROW()=1,"[","")&amp;""""&amp;B8&amp;""""&amp;IF(ISBLANK(B9),"]",","))</f>
+        <f t="shared" si="0"/>
         <v>"Alright, go-ahead",</v>
       </c>
       <c r="J8" t="str">
-        <f>IF(ISBLANK(C8),"",IF(ROW()=1,"[","")&amp;""""&amp;C8&amp;""""&amp;IF(ISBLANK(C9),"]",","))</f>
+        <f t="shared" si="1"/>
         <v>"Muy bien, adelante",</v>
       </c>
       <c r="K8" t="str">
-        <f>IF(ISBLANK(D8),"",IF(ROW()=1,"[","")&amp;""""&amp;D8&amp;""""&amp;IF(ISBLANK(D9),"]",","))</f>
+        <f t="shared" si="2"/>
         <v>"D'accord, allez-y",</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -969,21 +1021,21 @@
         <v>36</v>
       </c>
       <c r="I9" t="str">
-        <f>IF(ISBLANK(B9),"",IF(ROW()=1,"[","")&amp;""""&amp;B9&amp;""""&amp;IF(ISBLANK(B10),"]",","))</f>
+        <f t="shared" si="0"/>
         <v>"No of phases",</v>
       </c>
       <c r="J9" t="str">
-        <f>IF(ISBLANK(C9),"",IF(ROW()=1,"[","")&amp;""""&amp;C9&amp;""""&amp;IF(ISBLANK(C10),"]",","))</f>
+        <f t="shared" si="1"/>
         <v>"Nº de fases",</v>
       </c>
       <c r="K9" t="str">
-        <f>IF(ISBLANK(D9),"",IF(ROW()=1,"[","")&amp;""""&amp;D9&amp;""""&amp;IF(ISBLANK(D10),"]",","))</f>
+        <f t="shared" si="2"/>
         <v>"Nbre de phases",</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -996,21 +1048,21 @@
         <v>42</v>
       </c>
       <c r="I10" t="str">
-        <f>IF(ISBLANK(B10),"",IF(ROW()=1,"[","")&amp;""""&amp;B10&amp;""""&amp;IF(ISBLANK(B11),"]",","))</f>
+        <f t="shared" si="0"/>
         <v>"Line voltage",</v>
       </c>
       <c r="J10" t="str">
-        <f>IF(ISBLANK(C10),"",IF(ROW()=1,"[","")&amp;""""&amp;C10&amp;""""&amp;IF(ISBLANK(C11),"]",","))</f>
+        <f t="shared" si="1"/>
         <v>"Linea de voltaje",</v>
       </c>
       <c r="K10" t="str">
-        <f>IF(ISBLANK(D10),"",IF(ROW()=1,"[","")&amp;""""&amp;D10&amp;""""&amp;IF(ISBLANK(D11),"]",","))</f>
+        <f t="shared" si="2"/>
         <v>"Tension de ligne",</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -1023,21 +1075,21 @@
         <v>43</v>
       </c>
       <c r="I11" t="str">
-        <f>IF(ISBLANK(B11),"",IF(ROW()=1,"[","")&amp;""""&amp;B11&amp;""""&amp;IF(ISBLANK(B12),"]",","))</f>
+        <f t="shared" si="0"/>
         <v>"Frequency",</v>
       </c>
       <c r="J11" t="str">
-        <f>IF(ISBLANK(C11),"",IF(ROW()=1,"[","")&amp;""""&amp;C11&amp;""""&amp;IF(ISBLANK(C12),"]",","))</f>
+        <f t="shared" si="1"/>
         <v>"Frecuencia",</v>
       </c>
       <c r="K11" t="str">
-        <f>IF(ISBLANK(D11),"",IF(ROW()=1,"[","")&amp;""""&amp;D11&amp;""""&amp;IF(ISBLANK(D12),"]",","))</f>
+        <f t="shared" si="2"/>
         <v>"La fréquence",</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -1050,21 +1102,21 @@
         <v>44</v>
       </c>
       <c r="I12" t="str">
-        <f>IF(ISBLANK(B12),"",IF(ROW()=1,"[","")&amp;""""&amp;B12&amp;""""&amp;IF(ISBLANK(B13),"]",","))</f>
+        <f t="shared" si="0"/>
         <v>"Active power",</v>
       </c>
       <c r="J12" t="str">
-        <f>IF(ISBLANK(C12),"",IF(ROW()=1,"[","")&amp;""""&amp;C12&amp;""""&amp;IF(ISBLANK(C13),"]",","))</f>
+        <f t="shared" si="1"/>
         <v>"Potencia activo",</v>
       </c>
       <c r="K12" t="str">
-        <f>IF(ISBLANK(D12),"",IF(ROW()=1,"[","")&amp;""""&amp;D12&amp;""""&amp;IF(ISBLANK(D13),"]",","))</f>
+        <f t="shared" si="2"/>
         <v>"Puissance active",</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -1077,21 +1129,21 @@
         <v>45</v>
       </c>
       <c r="I13" t="str">
-        <f>IF(ISBLANK(B13),"",IF(ROW()=1,"[","")&amp;""""&amp;B13&amp;""""&amp;IF(ISBLANK(B14),"]",","))</f>
+        <f t="shared" si="0"/>
         <v>"Current power factor",</v>
       </c>
       <c r="J13" t="str">
-        <f>IF(ISBLANK(C13),"",IF(ROW()=1,"[","")&amp;""""&amp;C13&amp;""""&amp;IF(ISBLANK(C14),"]",","))</f>
+        <f t="shared" si="1"/>
         <v>"factor de potencia actual",</v>
       </c>
       <c r="K13" t="str">
-        <f>IF(ISBLANK(D13),"",IF(ROW()=1,"[","")&amp;""""&amp;D13&amp;""""&amp;IF(ISBLANK(D14),"]",","))</f>
+        <f t="shared" si="2"/>
         <v>"Facteur de puissance actuel",</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -1104,21 +1156,21 @@
         <v>51</v>
       </c>
       <c r="I14" t="str">
-        <f>IF(ISBLANK(B14),"",IF(ROW()=1,"[","")&amp;""""&amp;B14&amp;""""&amp;IF(ISBLANK(B15),"]",","))</f>
+        <f t="shared" si="0"/>
         <v>"Reactive power",</v>
       </c>
       <c r="J14" t="str">
-        <f>IF(ISBLANK(C14),"",IF(ROW()=1,"[","")&amp;""""&amp;C14&amp;""""&amp;IF(ISBLANK(C15),"]",","))</f>
+        <f t="shared" si="1"/>
         <v>"Potencia reactiva",</v>
       </c>
       <c r="K14" t="str">
-        <f>IF(ISBLANK(D14),"",IF(ROW()=1,"[","")&amp;""""&amp;D14&amp;""""&amp;IF(ISBLANK(D15),"]",","))</f>
+        <f t="shared" si="2"/>
         <v>"Puissance réactive",</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -1131,21 +1183,21 @@
         <v>57</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" ref="I15:I25" si="1">IF(ISBLANK(B15),"",IF(ROW()=1,"[","")&amp;""""&amp;B15&amp;""""&amp;IF(ISBLANK(B16),"]",","))</f>
+        <f t="shared" ref="I15:I25" si="4">IF(ISBLANK(B15),"",IF(ROW()=1,"[","")&amp;""""&amp;B15&amp;""""&amp;IF(ISBLANK(B16),"]",","))</f>
         <v>"Apparent power",</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" ref="J15:J25" si="2">IF(ISBLANK(C15),"",IF(ROW()=1,"[","")&amp;""""&amp;C15&amp;""""&amp;IF(ISBLANK(C16),"]",","))</f>
+        <f t="shared" ref="J15:J25" si="5">IF(ISBLANK(C15),"",IF(ROW()=1,"[","")&amp;""""&amp;C15&amp;""""&amp;IF(ISBLANK(C16),"]",","))</f>
         <v>"Potencia aparente",</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" ref="K15:K25" si="3">IF(ISBLANK(D15),"",IF(ROW()=1,"[","")&amp;""""&amp;D15&amp;""""&amp;IF(ISBLANK(D16),"]",","))</f>
+        <f t="shared" ref="K15:K25" si="6">IF(ISBLANK(D15),"",IF(ROW()=1,"[","")&amp;""""&amp;D15&amp;""""&amp;IF(ISBLANK(D16),"]",","))</f>
         <v>"Puissance apparente",</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -1158,21 +1210,21 @@
         <v>66</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"Lagging",</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"Atrasado",</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>"Retard",</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -1185,21 +1237,21 @@
         <v>71</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"Line current",</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"Corriente de línea",</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>"Courant de ligne",</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -1212,21 +1264,21 @@
         <v>79</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"Requirements",</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"Requisitos",</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>"Conditions",</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -1239,21 +1291,21 @@
         <v>80</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"Required power factor",</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"Factor de potencia requerido",</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>"Facteur de puissance requis",</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -1266,21 +1318,21 @@
         <v>81</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"Required capacitive reactive power",</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"Potencia reactiva capacitiva requerida",</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>"Puissance réactive capacitive requise",</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -1293,21 +1345,21 @@
         <v>82</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"Required capacitance",</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"Capacitancia requerida",</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>"Capacité requise",</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -1320,21 +1372,21 @@
         <v>83</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"when connected in delta",</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"cuando se conecta en delta",</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>"lorsqu'il est connecté en delta",</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -1347,21 +1399,21 @@
         <v>84</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"when connected in star",</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"cuando se conecta en estrella",</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>"lorsqu'il est connecté en étoile",</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -1374,33 +1426,537 @@
         <v>102</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="1"/>
-        <v>"Leading"]</v>
+        <f t="shared" si="4"/>
+        <v>"Leading",</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="2"/>
-        <v>"Adelantado"]</v>
+        <f t="shared" si="5"/>
+        <v>"Adelantado",</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="3"/>
-        <v>"Avance"]</v>
+        <f t="shared" si="6"/>
+        <v>"Avance",</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
+      <c r="B25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" t="s">
+        <v>108</v>
+      </c>
       <c r="I25" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>"The required value for the power factor cannot be less than the existing one.",</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>"El valor requerido para el factor de potencia no puede ser menor que el existente.",</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
+        <v>"La valeur requise pour le facteur de puissance ne peut pas être inférieure à celle existante.",</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" ref="I26:I51" si="7">IF(ISBLANK(B26),"",IF(ROW()=1,"[","")&amp;""""&amp;B26&amp;""""&amp;IF(ISBLANK(B27),"]",","))</f>
+        <v>"Required line current",</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" ref="J26:J51" si="8">IF(ISBLANK(C26),"",IF(ROW()=1,"[","")&amp;""""&amp;C26&amp;""""&amp;IF(ISBLANK(C27),"]",","))</f>
+        <v>"Corriente de línea requerida",</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" ref="K26:K51" si="9">IF(ISBLANK(D26),"",IF(ROW()=1,"[","")&amp;""""&amp;D26&amp;""""&amp;IF(ISBLANK(D27),"]",","))</f>
+        <v>"Courant de ligne requis",</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" t="s">
+        <v>112</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="7"/>
+        <v>"Required apparent power",</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="8"/>
+        <v>"Potencia aparente requerida",</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="9"/>
+        <v>"Puissance apparente requise",</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" t="s">
+        <v>115</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="7"/>
+        <v>"Required reactive power"]</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="8"/>
+        <v>"Potencia reactiva requerida"]</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="9"/>
+        <v>"Puissance réactive requise"]</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -1411,10 +1967,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0E6BF8-F39B-45B3-ADD1-787D3ABC96A2}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1438,7 +1994,7 @@
       </c>
       <c r="G1" t="str">
         <f ca="1">"const defaultSettings ={"&amp;_xlfn.CONCAT(E:E)&amp;"};"</f>
-        <v>const defaultSettings ={"sL":0,"sV":[true, false],"pA":false,"v":457,"nP":3,"vol":1000,"w":300,"q":225,"s":375,"f":60,"cpf":0.8,"i":0.21650635094611,"rpf":1,"rQ":0,"c":0,"cS":0,"cD":0,"rpfs":1};</v>
+        <v>const defaultSettings ={"sL":0,"sV":[true, false],"pA":false,"v":661,"nP":3,"vol":1000,"w":300,"q":225,"s":375,"f":60,"cpf":0.8,"i":0.21650635094611,"rpf":1,"rQC":0,"c":0,"cS":0,"cD":0,"rpfs":1,"rQ":0,"rS":0,"rI":0};</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1452,7 +2008,7 @@
         <v>100</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E25" si="0">IF(ISBLANK(B2), "",""""&amp;B2&amp;""":"&amp;C2&amp;IF(ISBLANK(C3),"",","))</f>
+        <f t="shared" ref="E2:E50" si="0">IF(ISBLANK(B2), "",""""&amp;B2&amp;""":"&amp;C2&amp;IF(ISBLANK(C3),"",","))</f>
         <v>"sV":[true, false],</v>
       </c>
     </row>
@@ -1480,11 +2036,11 @@
       </c>
       <c r="C4">
         <f ca="1">ROUND(RAND()*1000,0)</f>
-        <v>457</v>
+        <v>661</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"v":457,</v>
+        <v>"v":661,</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1628,14 +2184,14 @@
         <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>"rQ":0,</v>
+        <v>"rQC":0,</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1695,25 +2251,52 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v>"rpfs":1</v>
+        <v>"rpfs":1,</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>"rQ":0,</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>"rS":0,</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>"rI":0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1736,6 +2319,156 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1762,15 +2495,15 @@
       <c r="A1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="3" t="str">
         <f>text!O1</f>
-        <v>const l=[["English","us","Capacitor bank calculations","Mains info","Private policy","Terms and conditions","Hey, we use cookies on your device to locally store your data!","Alright, go-ahead","No of phases","Line voltage","Frequency","Active power","Current power factor","Reactive power","Apparent power","Lagging","Line current","Requirements","Required power factor","Required capacitive reactive power","Required capacitance","when connected in delta","when connected in star","Leading"],["Español","mx","Cálculos del banco de capacitores","Información de red","Política privada","Términos y condiciones","¡Oye, usamos cookies en tu dispositivo para almacenar localmente tus datos!","Muy bien, adelante","Nº de fases","Linea de voltaje","Frecuencia","Potencia activo","factor de potencia actual","Potencia reactiva","Potencia aparente","Atrasado","Corriente de línea","Requisitos","Factor de potencia requerido","Potencia reactiva capacitiva requerida","Capacitancia requerida","cuando se conecta en delta","cuando se conecta en estrella","Adelantado"],["Français","fr","Calculs de banc de condensateurs","Informations sur le secteur","Politique privée","Termes et conditions","Hé, nous utilisons des cookies sur votre appareil pour stocker localement vos données !","D'accord, allez-y","Nbre de phases","Tension de ligne","La fréquence","Puissance active","Facteur de puissance actuel","Puissance réactive","Puissance apparente","Retard","Courant de ligne","Conditions","Facteur de puissance requis","Puissance réactive capacitive requise","Capacité requise","lorsqu'il est connecté en delta","lorsqu'il est connecté en étoile","Avance"]];</v>
+        <v>const l=[["English","us","Capacitor bank calculations","Mains info","Private policy","Terms and conditions","Hey, we use cookies on your device to locally store your data!","Alright, go-ahead","No of phases","Line voltage","Frequency","Active power","Current power factor","Reactive power","Apparent power","Lagging","Line current","Requirements","Required power factor","Required capacitive reactive power","Required capacitance","when connected in delta","when connected in star","Leading","The required value for the power factor cannot be less than the existing one.","Required line current","Required apparent power","Required reactive power"],["Español","mx","Cálculos del banco de capacitores","Información de red","Política privada","Términos y condiciones","¡Oye, usamos cookies en tu dispositivo para almacenar localmente tus datos!","Muy bien, adelante","Nº de fases","Linea de voltaje","Frecuencia","Potencia activo","factor de potencia actual","Potencia reactiva","Potencia aparente","Atrasado","Corriente de línea","Requisitos","Factor de potencia requerido","Potencia reactiva capacitiva requerida","Capacitancia requerida","cuando se conecta en delta","cuando se conecta en estrella","Adelantado","El valor requerido para el factor de potencia no puede ser menor que el existente.","Corriente de línea requerida","Potencia aparente requerida","Potencia reactiva requerida"],["Français","fr","Calculs de banc de condensateurs","Informations sur le secteur","Politique privée","Termes et conditions","Hé, nous utilisons des cookies sur votre appareil pour stocker localement vos données !","D'accord, allez-y","Nbre de phases","Tension de ligne","La fréquence","Puissance active","Facteur de puissance actuel","Puissance réactive","Puissance apparente","Retard","Courant de ligne","Conditions","Facteur de puissance requis","Puissance réactive capacitive requise","Capacité requise","lorsqu'il est connecté en delta","lorsqu'il est connecté en étoile","Avance","La valeur requise pour le facteur de puissance ne peut pas être inférieure à celle existante.","Courant de ligne requis","Puissance apparente requise","Puissance réactive requise"]];</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C2" t="str">
+      <c r="C2" s="3" t="str">
         <f ca="1">settings!G1</f>
-        <v>const defaultSettings ={"sL":0,"sV":[true, false],"pA":false,"v":457,"nP":3,"vol":1000,"w":300,"q":225,"s":375,"f":60,"cpf":0.8,"i":0.21650635094611,"rpf":1,"rQ":0,"c":0,"cS":0,"cD":0,"rpfs":1};</v>
+        <v>const defaultSettings ={"sL":0,"sV":[true, false],"pA":false,"v":661,"nP":3,"vol":1000,"w":300,"q":225,"s":375,"f":60,"cpf":0.8,"i":0.21650635094611,"rpf":1,"rQC":0,"c":0,"cS":0,"cD":0,"rpfs":1,"rQ":0,"rS":0,"rI":0};</v>
       </c>
     </row>
   </sheetData>
